--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -76,6 +76,51 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>use strict</t>
+  </si>
+  <si>
+    <t>Instead of using "x.className +=" using "x.classList.add()" or "x.classList.remove()" method</t>
+  </si>
+  <si>
+    <t>Variables should be declared at the top in one function</t>
+  </si>
+  <si>
+    <t>Add js docs wherever possible</t>
+  </si>
+  <si>
+    <t>Use prototype based approach to write various functions</t>
+  </si>
+  <si>
+    <t>Avoid using "innerHTML", as it may lead to security issues.</t>
+  </si>
+  <si>
+    <t>Use event listeners in js itself instead of adding "onclick" or "onload", etc. in your template file</t>
+  </si>
+  <si>
+    <t>Template manipulation should be handled in html/css. only dynamic handling of different should be manipulated through js</t>
+  </si>
+  <si>
+    <t>Add an init function to declare variables and to call all various functions through the same</t>
+  </si>
+  <si>
+    <t>Alongwith above comment add onload event to load init function as soon as the window objects loads</t>
+  </si>
+  <si>
+    <t>"var x" doesn't define / specify anything as to what that variable is declared or used for. Use meaningful and concise variable names</t>
+  </si>
+  <si>
+    <t>Arrange the properties alphabetically</t>
+  </si>
+  <si>
+    <t>Hamburger menu icon is not aligned in middle to the logo</t>
+  </si>
+  <si>
+    <t>Reset all the browser defaults. Ref.: https://meyerweb.com/eric/tools/css/reset/reset.css</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -861,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1218,13 +1263,13 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1243,15 +1288,33 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1506,14 +1569,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1532,55 +1595,121 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -1785,8 +1914,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repo\for-mentees\Review Comments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15570" windowHeight="10125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -122,11 +127,35 @@
   <si>
     <t>In Progress</t>
   </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Date: 06/04/2018</t>
+  </si>
+  <si>
+    <t>In ".container" class, is font-size required? Check and confirm.</t>
+  </si>
+  <si>
+    <t>Use shorthand property for background and other properties too, throughout the code</t>
+  </si>
+  <si>
+    <t>"margin: auto" is used many times, is that really required? Check and confirm.</t>
+  </si>
+  <si>
+    <t>".navbar .menu-icon" and ".navbar .close-icon" contains same properties which can be merged into ".navbar" only</t>
+  </si>
+  <si>
+    <t>Use hex values only for color, do not use color names, viz.: darkblue, also convert rgba code into hex code too.</t>
+  </si>
+  <si>
+    <t>Avoid use of -ve values, unless it is really required.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,6 +295,51 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -372,64 +446,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -576,6 +592,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -597,21 +616,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:C1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="9"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="8"/>
-    <tableColumn id="3" name="Status" dataDxfId="7"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="2"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="0"/>
+    <tableColumn id="3" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:C1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="2"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="1"/>
-    <tableColumn id="3" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="5"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="4"/>
+    <tableColumn id="3" name="Status" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,7 +679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,7 +714,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -910,14 +929,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="81.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -939,7 +958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -950,7 +969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -961,7 +980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -972,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -994,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1016,7 +1035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1038,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1049,197 +1068,197 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -1262,299 +1281,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="82.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
       <formula1>"In Progress, Completed, Needs Help"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1569,18 +1603,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="120.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1602,7 +1636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1613,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1624,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1635,7 +1669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1646,7 +1680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1657,7 +1691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1668,7 +1702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1679,7 +1713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1690,7 +1724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1701,7 +1735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1712,197 +1746,197 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>

--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repo\for-mentees\Review Comments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15570" windowHeight="10125" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -151,11 +146,26 @@
   <si>
     <t>Avoid use of -ve values, unless it is really required.</t>
   </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Removed the font-size property</t>
+  </si>
+  <si>
+    <t>Removed "margin: auto" where it is not required.</t>
+  </si>
+  <si>
+    <t>merged</t>
+  </si>
+  <si>
+    <t>suggestions required</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -265,11 +275,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -289,56 +310,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -443,6 +420,73 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -601,36 +645,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:C1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="16"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="15"/>
-    <tableColumn id="3" name="Status" dataDxfId="14"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="17"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="16"/>
+    <tableColumn id="3" name="Status" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:C1048576"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="2"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="0"/>
-    <tableColumn id="3" name="Status" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sr. No." dataDxfId="10"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="9"/>
+    <tableColumn id="3" name="Status" dataDxfId="8"/>
+    <tableColumn id="6" name="Comments" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="5"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="4"/>
-    <tableColumn id="3" name="Status" dataDxfId="3"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="2"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="1"/>
+    <tableColumn id="3" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,7 +758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,14 +973,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -958,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -969,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -980,7 +1024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -991,7 +1035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1002,7 +1046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1013,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1035,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1057,7 +1101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1068,197 +1112,197 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -1279,20 +1323,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,15 +1347,18 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1321,7 +1369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1332,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1343,245 +1391,276 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -1593,8 +1672,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1603,18 +1683,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="120.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1636,7 +1716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1647,7 +1727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1658,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1669,7 +1749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1677,10 +1757,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1688,10 +1768,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1699,10 +1779,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1713,7 +1793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1724,7 +1804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1732,10 +1812,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1743,200 +1823,200 @@
         <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>

--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>suggestions required</t>
+  </si>
+  <si>
+    <t>removed -ve value for margin.</t>
   </si>
 </sst>
 </file>
@@ -969,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1326,7 +1329,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,7 +1467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -1472,7 +1475,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1683,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repo\for-mentees\Review Comments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15570" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -164,11 +169,56 @@
   <si>
     <t>removed -ve value for margin.</t>
   </si>
+  <si>
+    <t>Date: 06/05/2018</t>
+  </si>
+  <si>
+    <t>".sub-container{", there should be a space before opening curly braces. Please check and update throughout. Ref.: https://google.github.io/styleguide/htmlcssguide.html#Declaration_Block_Separation</t>
+  </si>
+  <si>
+    <t>For margin: auto, try using margin: 0 auto, if you want only the content in center from left and right</t>
+  </si>
+  <si>
+    <t>reset css is not resetting all the browser defaults</t>
+  </si>
+  <si>
+    <t>add a new line after closing curly braces throughout the code</t>
+  </si>
+  <si>
+    <t>Avoid targetting elements directly, instead target classes to add properties</t>
+  </si>
+  <si>
+    <t>All hex values should be in lowercase, check throughout the code</t>
+  </si>
+  <si>
+    <t>Add outline: none to all buttons, except required for the ones where it is required</t>
+  </si>
+  <si>
+    <t>Individual selectors should be on new line, if using comma separated selectors</t>
+  </si>
+  <si>
+    <t>Convert colornames to their respective hex codes. For e.g. "gray"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid repetition of values in a property. For e.g.: </t>
+  </si>
+  <si>
+    <t>Date: 06/06/2018</t>
+  </si>
+  <si>
+    <t>Try to implement smooth scroll functionality</t>
+  </si>
+  <si>
+    <t>Add cutom email validation and use input type text instead of email in html template</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a class="contact-btn" href="#contact-us"&gt;Contact&lt;/a&gt;&lt;/li&gt;, here no need add separate class, you can use "links" and in active state you can manage the css</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,12 +236,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -293,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -314,6 +370,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +710,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="A1:C1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1048575" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:C1048575"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Sr. No." dataDxfId="17"/>
     <tableColumn id="2" name="Review Comments" dataDxfId="16"/>
@@ -726,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,7 +823,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,20 +1032,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="81.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1016,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1027,7 +1089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1038,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1049,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1060,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1082,7 +1144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1104,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1115,204 +1177,205 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
         <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048575">
       <formula1>"In Progress, Completed, Needs Help"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1326,21 +1389,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,14 +1417,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1372,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1383,7 +1446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1394,12 +1457,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1413,7 +1482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1425,7 +1494,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1439,7 +1508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -1453,7 +1522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1467,7 +1536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -1481,194 +1550,120 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1687,20 +1682,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="120.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,325 +1706,204 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
       <formula1>"In Progress, Completed, Needs Help"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repo\for-mentees\Review Comments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15570" windowHeight="10125"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -200,25 +195,19 @@
     <t>Convert colornames to their respective hex codes. For e.g. "gray"</t>
   </si>
   <si>
-    <t xml:space="preserve">Avoid repetition of values in a property. For e.g.: </t>
-  </si>
-  <si>
-    <t>Date: 06/06/2018</t>
-  </si>
-  <si>
     <t>Try to implement smooth scroll functionality</t>
   </si>
   <si>
-    <t>Add cutom email validation and use input type text instead of email in html template</t>
-  </si>
-  <si>
     <t>&lt;li&gt;&lt;a class="contact-btn" href="#contact-us"&gt;Contact&lt;/a&gt;&lt;/li&gt;, here no need add separate class, you can use "links" and in active state you can manage the css</t>
+  </si>
+  <si>
+    <t>Add custom email validation and use input type text instead of email in html template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -823,7 +812,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,18 +1023,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1078,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1089,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1100,7 +1089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1111,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1122,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1144,7 +1133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1166,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1177,12 +1166,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -1195,180 +1184,183 @@
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>37</v>
       </c>
@@ -1391,19 +1383,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,14 +1409,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1435,7 +1427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1446,7 +1438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1457,13 +1449,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1482,7 +1474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1550,118 +1542,142 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>10</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>15</v>
       </c>
@@ -1685,14 +1701,14 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="120.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,53 +1866,59 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>11</v>
       </c>

--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
     <sheet name="CSS" sheetId="4" r:id="rId2"/>
-    <sheet name="JS" sheetId="5" r:id="rId3"/>
+    <sheet name="JS" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -38,6 +38,84 @@
   <si>
     <t>Change the link references in head tag.
 Instead of "./images/..." use "images/….". Same for css and js link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date: 6/6/2018</t>
+  </si>
+  <si>
+    <t>Is the normalize.css really required? Instead you can just add reset styling from here: https://meyerweb.com/eric/tools/css/reset/reset.css</t>
+  </si>
+  <si>
+    <t>Merge all css in one file only</t>
+  </si>
+  <si>
+    <t>Date: 06/06/2018</t>
+  </si>
+  <si>
+    <t>Why nav is used twice, can you try using only one? And handling it through css</t>
+  </si>
+  <si>
+    <t>Camelcase should not be used for classname or id names</t>
+  </si>
+  <si>
+    <t>Two space indentation in css too is required</t>
+  </si>
+  <si>
+    <t>Change favicon image name under images' directory</t>
+  </si>
+  <si>
+    <t>Arrange properties in alphabetical order. E.g.: header class's properties are not alphabetically arranged. Check whole code.</t>
+  </si>
+  <si>
+    <t>Hex color codes should be shortened. For e.g.: #ffffff =&gt; #fff</t>
+  </si>
+  <si>
+    <t>merge classes if properties and values are same</t>
+  </si>
+  <si>
+    <t>margin-top: 165%, is this really required. The values shouldn't be this high. Try with alternate option.</t>
+  </si>
+  <si>
+    <t>Be consistent with using the units. Either use rem or em or px. Do not use all in one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use hex color codes only, do not use color names </t>
+  </si>
+  <si>
+    <t>padding: 6rem 2rem 2rem 2rem;, this can shorten as padding: 6rem 2rem 2rem; Check whole code and use shorthand properties wherever possible.</t>
+  </si>
+  <si>
+    <t>Remove properties which are added multiple times for same classes</t>
+  </si>
+  <si>
+    <t>Do not manipulate styling through JS</t>
+  </si>
+  <si>
+    <t>use strict</t>
+  </si>
+  <si>
+    <t>Add js docs wherever possible</t>
+  </si>
+  <si>
+    <t>Use event listeners in js itself instead of adding "onclick" or "onload", etc. in your template file</t>
+  </si>
+  <si>
+    <t>Instead of using "x.className +=" using "x.classList.add()" or "x.classList.remove()" method</t>
+  </si>
+  <si>
+    <t>Add an init function to declare variables and to call all various functions through the same</t>
+  </si>
+  <si>
+    <t>Alongwith above comment add onload event to load init function as soon as the window objects loads</t>
+  </si>
+  <si>
+    <t>var i doesn't define / specify anything as to what that variable is declared or used for. Use meaningful and concise variable names</t>
+  </si>
+  <si>
+    <t>Store slides.length in one variable and use that variable throughout the function, as it is used several times</t>
+  </si>
+  <si>
+    <t>Optimize the function for hamburger toggling.</t>
   </si>
 </sst>
 </file>
@@ -53,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -149,13 +233,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -166,13 +248,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -184,80 +309,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -265,13 +316,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -291,6 +335,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -309,7 +360,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -320,12 +371,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -338,16 +388,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -358,12 +402,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -371,13 +409,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -397,6 +428,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -415,7 +453,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -426,8 +464,68 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -446,36 +544,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -489,36 +557,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:C1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="0"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="1"/>
-    <tableColumn id="3" name="Status" dataDxfId="16"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="16"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="15"/>
+    <tableColumn id="3" name="Status" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:C1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="11"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="10"/>
-    <tableColumn id="3" name="Status" dataDxfId="9"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="9"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="8"/>
+    <tableColumn id="3" name="Status" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:C1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:C1048573" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C1048573"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="4"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="3"/>
-    <tableColumn id="3" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="2"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="1"/>
+    <tableColumn id="3" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -811,32 +879,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -844,7 +912,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -852,7 +920,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -860,241 +928,108 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1115,274 +1050,307 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:C3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1401,283 +1369,318 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048573">
       <formula1>"In Progress, Completed, Needs Help"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="15576" windowHeight="10128" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1240,27 +1240,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>17</v>
       </c>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1880,7 +1880,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repo\for-mentees\Review Comments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="10125"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="10125" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -33,16 +38,52 @@
     <t>Date: 6/7/2018</t>
   </si>
   <si>
-    <t>Move the html outsid and rename it to "index.html"</t>
-  </si>
-  <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Move the html outside and rename it to "index.html"</t>
+  </si>
+  <si>
+    <t>Date: 6/12/2018</t>
+  </si>
+  <si>
+    <t>&lt;head&gt; tag is missing</t>
+  </si>
+  <si>
+    <t>meta charset and meta viewport should be two different elements</t>
+  </si>
+  <si>
+    <t>Rename css file to style.css</t>
+  </si>
+  <si>
+    <t>Add dummy favicon</t>
+  </si>
+  <si>
+    <t>script tag should be at the bottom i.e. at the end of body tag</t>
+  </si>
+  <si>
+    <t>Use reset css to reset browsers' default styles</t>
+  </si>
+  <si>
+    <t>Avoid using IDs in css, instead handle the things using class name</t>
+  </si>
+  <si>
+    <t>arrange properties alphabetically</t>
+  </si>
+  <si>
+    <t>use shorthand properties wherever possible</t>
+  </si>
+  <si>
+    <t>avoid repetition of values</t>
+  </si>
+  <si>
+    <t>be consistent while adding adding new line beofre and after a selector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -52,12 +93,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -148,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -169,6 +216,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,6 +513,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -543,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,7 +635,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,10 +878,85 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,8 +999,59 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -886,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,6 +1098,74 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048573">

--- a/Review Comments/Code_review_comments.xlsx
+++ b/Review Comments/Code_review_comments.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repo\for-mentees\Review Comments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="10125" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
-    <sheet name="CSS" sheetId="4" r:id="rId2"/>
-    <sheet name="JS" sheetId="6" r:id="rId3"/>
+    <sheet name="CSS" sheetId="6" r:id="rId2"/>
+    <sheet name="JS" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -77,13 +72,31 @@
     <t>avoid repetition of values</t>
   </si>
   <si>
-    <t>be consistent while adding adding new line beofre and after a selector</t>
+    <t>be consistent while adding adding new line before and after a selector</t>
+  </si>
+  <si>
+    <t>Needs Help</t>
+  </si>
+  <si>
+    <t>Relpaced required ids with classes.</t>
+  </si>
+  <si>
+    <t>Commnet</t>
+  </si>
+  <si>
+    <t>Could not understand</t>
+  </si>
+  <si>
+    <t>Is it optional sometimes ?</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -191,11 +204,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -223,11 +249,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -320,6 +364,9 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -522,36 +569,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A1:C1048576"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="16"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="15"/>
-    <tableColumn id="3" name="Status" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:D1048576"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sr. No." dataDxfId="18"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="17"/>
+    <tableColumn id="3" name="Status" dataDxfId="16"/>
+    <tableColumn id="4" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:C1048576"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="9"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="8"/>
-    <tableColumn id="3" name="Status" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:D1048573" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:D1048573"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sr. No." dataDxfId="11"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="10"/>
+    <tableColumn id="3" name="Status" dataDxfId="9"/>
+    <tableColumn id="4" name="Commnet" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:C1048573" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C1048573"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr. No." dataDxfId="2"/>
-    <tableColumn id="2" name="Review Comments" dataDxfId="1"/>
-    <tableColumn id="3" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="3"/>
+    <tableColumn id="2" name="Review Comments" dataDxfId="2"/>
+    <tableColumn id="3" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -600,7 +649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,7 +684,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -844,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,9 +904,10 @@
     <col min="1" max="1" width="9" style="7" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.85546875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -867,13 +917,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -884,77 +937,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -973,6 +1044,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048573">
+      <formula1>"In Progress, Completed, Needs Help"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1065,116 +1280,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048573">
-      <formula1>"In Progress, Completed, Needs Help"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>